--- a/Thesis_project/01_data-input/National/RS/fertility.xlsx
+++ b/Thesis_project/01_data-input/National/RS/fertility.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\01_data-input\National\RS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\National\RS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68EFECC7-EB55-49B9-80E5-C909ED609F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6F542B-9638-4C1C-B07F-42CEC0AE4E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4485" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExportedData" sheetId="1" r:id="rId1"/>
+    <sheet name="Data_clean" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="79">
   <si>
     <t>IDIndikator</t>
   </si>
@@ -246,16 +260,33 @@
   </si>
   <si>
     <t>1.56</t>
+  </si>
+  <si>
+    <t>NUTS</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Fertility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,8 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,9 +330,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -338,7 +370,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -444,7 +476,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -586,7 +618,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -596,11 +628,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -682,7 +714,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -723,7 +755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -764,7 +796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -805,7 +837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -846,7 +878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -887,7 +919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -928,7 +960,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -969,7 +1001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1010,7 +1042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1051,7 +1083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1092,7 +1124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1133,7 +1165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1174,7 +1206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1215,7 +1247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1256,7 +1288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1297,7 +1329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1338,7 +1370,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -1379,7 +1411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -1420,7 +1452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -1461,7 +1493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1502,7 +1534,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1543,7 +1575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1584,7 +1616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1625,7 +1657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1666,7 +1698,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1707,7 +1739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1748,7 +1780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1789,7 +1821,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1830,7 +1862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1871,7 +1903,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1912,7 +1944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1953,7 +1985,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1994,7 +2026,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -2035,7 +2067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -2076,7 +2108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -2117,7 +2149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2158,7 +2190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2199,7 +2231,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -2240,7 +2272,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -2281,7 +2313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -2322,7 +2354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -2363,7 +2395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -2404,7 +2436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -2445,7 +2477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -2486,7 +2518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -2527,7 +2559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -2568,7 +2600,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -2607,6 +2639,712 @@
       </c>
       <c r="M49" t="s">
         <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5C990A-DC06-4B0F-A6D7-9AAF2C68AA0E}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
